--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_18_12.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_18_12.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-716789.8670514837</v>
+        <v>-719324.8379273381</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673435</v>
+        <v>603248.493767343</v>
       </c>
     </row>
     <row r="9">
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>261.6839624475261</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -674,7 +674,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>211.0785184722386</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -716,7 +716,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734093895</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -817,13 +817,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -835,7 +835,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,22 +865,22 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>47.36822999739895</v>
+        <v>142.0722016148451</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -899,19 +899,19 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>304.7443553964642</v>
       </c>
       <c r="E5" t="n">
-        <v>291.1991877339076</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -956,13 +956,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1051,25 +1051,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.4275060208985</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,10 +1099,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
@@ -1111,13 +1111,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>174.5850510879344</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1133,16 +1133,16 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>131.4477066762136</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
@@ -1151,7 +1151,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>79.76470074482967</v>
       </c>
     </row>
     <row r="9">
@@ -1339,10 +1339,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
@@ -1351,13 +1351,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>147.0007222705587</v>
+        <v>110.0957962888888</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1376,7 +1376,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1531,22 +1531,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>115.4764219077142</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,13 +1576,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1591,10 +1591,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890385</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>74.41917683132957</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1607,7 +1607,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1616,7 +1616,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417101</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1762,13 +1762,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1783,7 +1783,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>80.56412890121425</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,25 +1813,25 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.5229983365955</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>155.685013149892</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1853,7 +1853,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>409.8033385187866</v>
@@ -2014,10 +2014,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>16.09765778288556</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2062,7 +2062,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>162.7401913819093</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2090,13 +2090,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417125</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2239,7 +2239,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -2284,16 +2284,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>253.2918698186439</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>76.28317487965505</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2476,22 +2476,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>61.97958965902472</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2530,10 +2530,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>247.5867185477173</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2555,7 +2555,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2570,7 +2570,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2713,16 +2713,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>68.11883945936997</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2770,7 +2770,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2953,19 +2953,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3013,7 +3013,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>14.73874327217528</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3193,16 +3193,16 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>137.7610225486951</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3235,7 +3235,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3427,10 +3427,10 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261734</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F37" t="n">
         <v>121.1364005308915</v>
@@ -3439,10 +3439,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541845</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
@@ -3506,7 +3506,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3554,7 +3554,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3667,7 +3667,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
@@ -3676,10 +3676,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U40" t="n">
         <v>261.8998268972044</v>
@@ -3898,7 +3898,7 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D43" t="n">
         <v>124.3308255261727</v>
@@ -3907,16 +3907,16 @@
         <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H43" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652585</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808199</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -3952,16 +3952,16 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U43" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972045</v>
       </c>
       <c r="V43" t="n">
         <v>227.8529958317883</v>
       </c>
       <c r="W43" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y43" t="n">
         <v>194.3000058600551</v>
@@ -4135,25 +4135,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C46" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D46" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F46" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G46" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652578</v>
+        <v>56.98118882652587</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,25 +4180,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808193</v>
+        <v>42.09059921808202</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U46" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972045</v>
       </c>
       <c r="V46" t="n">
         <v>227.8529958317883</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X46" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y46" t="n">
         <v>194.3000058600551</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1491.569348694472</v>
+        <v>2209.232076102164</v>
       </c>
       <c r="C2" t="n">
-        <v>1491.569348694472</v>
+        <v>1840.269559161753</v>
       </c>
       <c r="D2" t="n">
-        <v>1491.569348694472</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E2" t="n">
-        <v>1105.781096096227</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F2" t="n">
-        <v>694.7951913066199</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G2" t="n">
-        <v>279.7227411516164</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H2" t="n">
         <v>66.5121164321834</v>
@@ -4331,13 +4331,13 @@
         <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
         <v>2120.555556060171</v>
@@ -4364,16 +4364,16 @@
         <v>3325.60582160917</v>
       </c>
       <c r="V2" t="n">
-        <v>2994.542934265599</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="W2" t="n">
-        <v>2641.774278995485</v>
+        <v>2972.837166339056</v>
       </c>
       <c r="X2" t="n">
-        <v>2268.308520734405</v>
+        <v>2599.371408077976</v>
       </c>
       <c r="Y2" t="n">
-        <v>1878.169188758593</v>
+        <v>2209.232076102164</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>1702.096133556938</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>1527.643104275811</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>1378.708694614559</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>1219.471239609104</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>1072.936681635989</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>936.573581468607</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>846.0716871064745</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>827.0643955080125</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>920.7416649986299</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>1159.005863978977</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>1525.704024291642</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513958</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>2446.503393068413</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2857.464672486467</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>3167.96426396257</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201686</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695166</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373021</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2775.312734507437</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275694</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547493</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>2078.07176934196</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1870.311470577006</v>
       </c>
     </row>
     <row r="4">
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>774.7644039315074</v>
+        <v>844.171363847817</v>
       </c>
       <c r="C4" t="n">
-        <v>774.7644039315074</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="D4" t="n">
-        <v>624.6477645191717</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="E4" t="n">
-        <v>624.6477645191717</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F4" t="n">
-        <v>477.7578170212613</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959802</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H4" t="n">
-        <v>163.837793613838</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I4" t="n">
         <v>66.5121164321834</v>
@@ -4513,25 +4513,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1837.464090846021</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>1837.464090846021</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U4" t="n">
-        <v>1548.361223971664</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="V4" t="n">
-        <v>1293.676735765777</v>
+        <v>1169.327103036486</v>
       </c>
       <c r="W4" t="n">
-        <v>1004.259565728817</v>
+        <v>1169.327103036486</v>
       </c>
       <c r="X4" t="n">
-        <v>956.4128687617472</v>
+        <v>1025.819828678057</v>
       </c>
       <c r="Y4" t="n">
-        <v>956.4128687617472</v>
+        <v>1025.819828678057</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1480.516858765519</v>
+        <v>1628.17820394412</v>
       </c>
       <c r="C5" t="n">
-        <v>1480.516858765519</v>
+        <v>1628.17820394412</v>
       </c>
       <c r="D5" t="n">
-        <v>1122.251160158768</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E5" t="n">
-        <v>828.1105664881545</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F5" t="n">
-        <v>417.1246616985469</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U5" t="n">
-        <v>2961.784676410103</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="V5" t="n">
-        <v>2630.721789066532</v>
+        <v>2741.012457539436</v>
       </c>
       <c r="W5" t="n">
-        <v>2630.721789066532</v>
+        <v>2388.243802269321</v>
       </c>
       <c r="X5" t="n">
-        <v>2257.256030805452</v>
+        <v>2014.778044008242</v>
       </c>
       <c r="Y5" t="n">
-        <v>1867.11669882964</v>
+        <v>2014.778044008242</v>
       </c>
     </row>
     <row r="6">
@@ -4620,37 +4620,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4677,7 +4677,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4686,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>696.2582702654239</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C7" t="n">
-        <v>527.322087337517</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D7" t="n">
-        <v>527.322087337517</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="E7" t="n">
-        <v>527.322087337517</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F7" t="n">
-        <v>380.4321398396067</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143257</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4747,28 +4747,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1837.464090846021</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T7" t="n">
-        <v>1615.697475415547</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U7" t="n">
-        <v>1615.697475415547</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="V7" t="n">
-        <v>1615.697475415547</v>
+        <v>1259.157560278958</v>
       </c>
       <c r="W7" t="n">
-        <v>1326.280305378586</v>
+        <v>1259.157560278958</v>
       </c>
       <c r="X7" t="n">
-        <v>1098.290754480569</v>
+        <v>1082.809023826499</v>
       </c>
       <c r="Y7" t="n">
-        <v>877.4981753370386</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2024.960096412931</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="C8" t="n">
-        <v>1655.997579472519</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="D8" t="n">
-        <v>1297.731880865769</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E8" t="n">
-        <v>911.9436282675244</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>779.1681669784198</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993393</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>3119.628073993393</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V8" t="n">
-        <v>2788.565186649822</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W8" t="n">
-        <v>2788.565186649822</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X8" t="n">
-        <v>2415.099428388743</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y8" t="n">
-        <v>2024.960096412931</v>
+        <v>1617.939223126803</v>
       </c>
     </row>
     <row r="9">
@@ -4951,13 +4951,13 @@
         <v>234.2149530574645</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4987,22 +4987,22 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T10" t="n">
-        <v>1645.778206672847</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="U10" t="n">
-        <v>1356.675339798491</v>
+        <v>1326.59460854119</v>
       </c>
       <c r="V10" t="n">
-        <v>1101.990851592604</v>
+        <v>1071.910120335303</v>
       </c>
       <c r="W10" t="n">
-        <v>953.5052735415344</v>
+        <v>960.7022452960216</v>
       </c>
       <c r="X10" t="n">
-        <v>953.5052735415344</v>
+        <v>732.7126943980043</v>
       </c>
       <c r="Y10" t="n">
         <v>732.7126943980043</v>
@@ -5021,7 +5021,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
         <v>1204.759558406469</v>
@@ -5030,16 +5030,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075807</v>
@@ -5060,7 +5060,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5121,25 +5121,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>634.5603720565526</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1231.938859683105</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>948.5505208511906</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C13" t="n">
-        <v>779.6143379232838</v>
+        <v>527.7722521572603</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>377.6556127449245</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5224,25 +5224,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U13" t="n">
-        <v>1977.461080510508</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V13" t="n">
-        <v>1722.776592304621</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W13" t="n">
-        <v>1433.359422267661</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X13" t="n">
-        <v>1205.369871369642</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y13" t="n">
-        <v>1130.19898568143</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="14">
@@ -5252,16 +5252,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
         <v>793.7736536168611</v>
@@ -5270,58 +5270,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>228.9331431646415</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>562.8579153358621</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>1058.183521551621</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1655.562009178173</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>2283.159972732779</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>866.4638174991042</v>
+        <v>1097.958364892464</v>
       </c>
       <c r="C16" t="n">
-        <v>697.5276345711973</v>
+        <v>929.0221819645576</v>
       </c>
       <c r="D16" t="n">
-        <v>697.5276345711973</v>
+        <v>778.9055425522218</v>
       </c>
       <c r="E16" t="n">
-        <v>549.6145409888042</v>
+        <v>630.9924489698287</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>484.1025014719183</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>316.9064021867983</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797186</v>
+        <v>175.1945710289964</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5452,34 +5452,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="U16" t="n">
-        <v>1977.461080510508</v>
+        <v>2090.842153176859</v>
       </c>
       <c r="V16" t="n">
-        <v>1722.776592304621</v>
+        <v>1836.157664970973</v>
       </c>
       <c r="W16" t="n">
-        <v>1433.359422267656</v>
+        <v>1546.740494934012</v>
       </c>
       <c r="X16" t="n">
-        <v>1205.369871369639</v>
+        <v>1318.750944035995</v>
       </c>
       <c r="Y16" t="n">
-        <v>1048.112282329344</v>
+        <v>1097.958364892464</v>
       </c>
     </row>
     <row r="17">
@@ -5495,10 +5495,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
         <v>793.7736536168611</v>
@@ -5510,25 +5510,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5607,10 +5607,10 @@
         <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2299.457522348532</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>680.448174698413</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="C19" t="n">
-        <v>680.448174698413</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D19" t="n">
-        <v>530.3315352860773</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E19" t="n">
-        <v>382.4184417036842</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F19" t="n">
-        <v>235.5284942057738</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5683,40 +5683,40 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570816</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832661</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2363.657119445908</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>2144.05565446885</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1854.980427813048</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1600.295939607161</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1310.8787695702</v>
+        <v>1336.363037697518</v>
       </c>
       <c r="X19" t="n">
-        <v>1082.889218672183</v>
+        <v>1108.373486799501</v>
       </c>
       <c r="Y19" t="n">
-        <v>862.0966395286528</v>
+        <v>887.5809076559709</v>
       </c>
     </row>
     <row r="20">
@@ -5729,70 +5729,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,16 +5823,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
         <v>1074.481071167373</v>
@@ -5841,16 +5841,16 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1671.859558793925</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,7 +5884,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>847.6442739835331</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C22" t="n">
         <v>847.6442739835331</v>
@@ -5902,10 +5902,10 @@
         <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T22" t="n">
-        <v>2160.315914855604</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U22" t="n">
-        <v>1871.240688199802</v>
+        <v>2191.112710026075</v>
       </c>
       <c r="V22" t="n">
-        <v>1616.556199993915</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="W22" t="n">
-        <v>1327.139029956954</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X22" t="n">
-        <v>1250.085317957303</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y22" t="n">
-        <v>1029.292738813773</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="23">
@@ -5978,7 +5978,7 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
@@ -5987,19 +5987,19 @@
         <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.422291068009</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1074.481071167373</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1702.07903472198</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2253.988764961267</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>768.5380889459582</v>
+        <v>552.8412329032296</v>
       </c>
       <c r="C25" t="n">
-        <v>705.9324428257312</v>
+        <v>552.8412329032296</v>
       </c>
       <c r="D25" t="n">
-        <v>555.8158034133954</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797189</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6178,19 +6178,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1727.373486017864</v>
       </c>
       <c r="V25" t="n">
-        <v>1688.385853854706</v>
+        <v>1472.688997811978</v>
       </c>
       <c r="W25" t="n">
-        <v>1398.968683817745</v>
+        <v>1183.271827775017</v>
       </c>
       <c r="X25" t="n">
-        <v>1170.979132919728</v>
+        <v>955.2822768769995</v>
       </c>
       <c r="Y25" t="n">
-        <v>950.1865537761979</v>
+        <v>734.4896977334694</v>
       </c>
     </row>
     <row r="26">
@@ -6206,16 +6206,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
@@ -6227,19 +6227,19 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6300,28 +6300,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1140.291933891999</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1767.889897446606</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6358,16 +6358,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>768.5380889459582</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>768.5380889459582</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D28" t="n">
-        <v>618.4214495336224</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E28" t="n">
-        <v>549.6145409888043</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
         <v>402.7245934908939</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V28" t="n">
-        <v>1688.385853854706</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>1398.968683817745</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>1170.979132919728</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>950.1865537761979</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
@@ -6464,7 +6464,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6476,7 +6476,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6494,19 +6494,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6543,25 +6543,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>315.9123021921482</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>315.9123021921482</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>913.2907898187001</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1540.888753373307</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>726.955532171245</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>558.0193492433381</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6661,10 +6661,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1129.396576145015</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>908.6039970014847</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6689,7 +6689,7 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1103.652278938886</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1731.250242493492</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>696.7084350851671</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>527.7722521572603</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>527.7722521572603</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>379.8591585748671</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>232.9692110769568</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6883,25 +6883,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2379.917379832663</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T34" t="n">
-        <v>2160.315914855604</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U34" t="n">
-        <v>1871.240688199802</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1616.556199993915</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1327.139029956954</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>1099.149479058937</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>878.3568999154069</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6923,34 +6923,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7020,22 +7020,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>579.1554649516142</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1176.533952578166</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1804.131916132773</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319328</v>
+        <v>926.957531531933</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656822</v>
+        <v>782.5512955656824</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150027</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942658</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580117</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G37" t="n">
-        <v>268.555303634548</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H37" t="n">
         <v>151.373419438402</v>
@@ -7096,10 +7096,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7169,13 +7169,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7248,25 +7248,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1174.766565373399</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1802.364528928006</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2354.274259167293</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7306,16 +7306,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319319</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656814</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150019</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F40" t="n">
         <v>411.2214559580114</v>
@@ -7330,7 +7330,7 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
         <v>483.8255460380728</v>
@@ -7351,10 +7351,10 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717214</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S40" t="n">
         <v>2438.456847547834</v>
@@ -7375,7 +7375,7 @@
         <v>1280.338681582389</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="41">
@@ -7385,19 +7385,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7406,13 +7406,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7424,7 +7424,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7442,19 +7442,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7497,19 +7497,19 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1074.481071167373</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656818</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
@@ -7570,22 +7570,22 @@
         <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380727</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311322</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M43" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N43" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q43" t="n">
         <v>2639.297491717215</v>
@@ -7603,7 +7603,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W43" t="n">
         <v>1483.798285518751</v>
@@ -7637,13 +7637,13 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
         <v>378.192580311172</v>
@@ -7737,16 +7737,16 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1671.859558793925</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2223.769289033212</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319328</v>
+        <v>926.957531531933</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656822</v>
+        <v>782.5512955656823</v>
       </c>
       <c r="D46" t="n">
         <v>656.9646031150028</v>
       </c>
       <c r="E46" t="n">
-        <v>533.581456494266</v>
+        <v>533.5814564942659</v>
       </c>
       <c r="F46" t="n">
-        <v>411.221455958012</v>
+        <v>411.2214559580118</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H46" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384021</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
-        <v>198.0944824954151</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K46" t="n">
         <v>483.8255460380728</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311322</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7828,7 +7828,7 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S46" t="n">
         <v>2438.456847547835</v>
@@ -7837,13 +7837,13 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838287</v>
       </c>
       <c r="V46" t="n">
         <v>1748.685508594056</v>
       </c>
       <c r="W46" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.798285518752</v>
       </c>
       <c r="X46" t="n">
         <v>1280.33868158239</v>
@@ -8079,7 +8079,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>4.308775558570233e-13</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -9185,7 +9185,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -22544,13 +22544,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>253.3440499403145</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>92.99907917315682</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -22562,7 +22562,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>83.52924591508182</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>41.57692977292595</v>
@@ -22604,7 +22604,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -22705,13 +22705,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -22753,22 +22753,22 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>11.33359987698869</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>178.3414253916382</v>
+        <v>83.63745377419204</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -23419,22 +23419,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>30.95754073885493</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,13 +23464,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>144.1654765207652</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23650,13 +23650,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0.7017074173512867</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,13 +23701,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>62.89964020220276</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23902,10 +23902,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>164.928628218759</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23950,7 +23950,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>123.7828069546817</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24127,7 +24127,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24172,16 +24172,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>32.89260457060021</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>149.4264805093821</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24364,22 +24364,22 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>105.2672314396031</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24418,10 +24418,10 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>38.5977558415268</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24601,16 +24601,16 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>78.31512318719921</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24658,7 +24658,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24841,19 +24841,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>210.9709121168619</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25081,16 +25081,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>27.76311574357379</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25123,7 +25123,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25327,7 +25327,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>-3.126388037344441e-13</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -26320,25 +26320,25 @@
         <v>246312.530959285</v>
       </c>
       <c r="E2" t="n">
-        <v>242143.9799070017</v>
+        <v>242143.9799070018</v>
       </c>
       <c r="F2" t="n">
         <v>242143.9799070018</v>
       </c>
       <c r="G2" t="n">
+        <v>242143.9799070017</v>
+      </c>
+      <c r="H2" t="n">
+        <v>242143.9799070019</v>
+      </c>
+      <c r="I2" t="n">
         <v>242143.9799070018</v>
       </c>
-      <c r="H2" t="n">
+      <c r="J2" t="n">
         <v>242143.9799070018</v>
       </c>
-      <c r="I2" t="n">
-        <v>242143.9799070019</v>
-      </c>
-      <c r="J2" t="n">
-        <v>242143.9799070019</v>
-      </c>
       <c r="K2" t="n">
-        <v>242143.9799070017</v>
+        <v>242143.9799070018</v>
       </c>
       <c r="L2" t="n">
         <v>242143.9799070018</v>
@@ -26350,7 +26350,7 @@
         <v>246312.530959285</v>
       </c>
       <c r="O2" t="n">
-        <v>246312.530959285</v>
+        <v>246312.5309592847</v>
       </c>
       <c r="P2" t="n">
         <v>246312.530959285</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>4.263256414560601e-11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>16685.50469591408</v>
+        <v>16685.50469591405</v>
       </c>
       <c r="C4" t="n">
-        <v>90964.01098815708</v>
+        <v>90964.01098815714</v>
       </c>
       <c r="D4" t="n">
-        <v>90964.01098815708</v>
+        <v>90964.0109881571</v>
       </c>
       <c r="E4" t="n">
         <v>11776.97621680582</v>
@@ -26430,13 +26430,13 @@
         <v>11776.97621680582</v>
       </c>
       <c r="G4" t="n">
+        <v>11776.97621680584</v>
+      </c>
+      <c r="H4" t="n">
         <v>11776.97621680582</v>
       </c>
-      <c r="H4" t="n">
-        <v>11776.97621680578</v>
-      </c>
       <c r="I4" t="n">
-        <v>11776.97621680582</v>
+        <v>11776.97621680583</v>
       </c>
       <c r="J4" t="n">
         <v>11776.97621680584</v>
@@ -26448,16 +26448,16 @@
         <v>11776.97621680582</v>
       </c>
       <c r="M4" t="n">
+        <v>19767.8354798993</v>
+      </c>
+      <c r="N4" t="n">
         <v>19767.83547989928</v>
       </c>
-      <c r="N4" t="n">
-        <v>19767.83547989931</v>
-      </c>
       <c r="O4" t="n">
-        <v>19767.83547989928</v>
+        <v>19767.83547989927</v>
       </c>
       <c r="P4" t="n">
-        <v>19767.8354798993</v>
+        <v>19767.83547989927</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1246093.070859431</v>
+        <v>-1246418.415949712</v>
       </c>
       <c r="C6" t="n">
-        <v>47414.57940973461</v>
+        <v>47414.57940973458</v>
       </c>
       <c r="D6" t="n">
-        <v>47414.57940973461</v>
+        <v>47414.57940973464</v>
       </c>
       <c r="E6" t="n">
-        <v>-196167.9879410664</v>
+        <v>-196202.725866502</v>
       </c>
       <c r="F6" t="n">
-        <v>129244.4738662889</v>
+        <v>129209.7359408532</v>
       </c>
       <c r="G6" t="n">
-        <v>129244.4738662889</v>
+        <v>129209.7359408531</v>
       </c>
       <c r="H6" t="n">
-        <v>129244.4738662889</v>
+        <v>129209.7359408533</v>
       </c>
       <c r="I6" t="n">
-        <v>129244.4738662889</v>
+        <v>129209.7359408531</v>
       </c>
       <c r="J6" t="n">
-        <v>-88286.72853098846</v>
+        <v>-88321.4664564243</v>
       </c>
       <c r="K6" t="n">
-        <v>129244.4738662888</v>
+        <v>129209.7359408532</v>
       </c>
       <c r="L6" t="n">
-        <v>129244.4738662889</v>
+        <v>129209.7359408532</v>
       </c>
       <c r="M6" t="n">
-        <v>18897.8336963265</v>
+        <v>18897.83369632649</v>
       </c>
       <c r="N6" t="n">
-        <v>123380.5796254702</v>
+        <v>123380.5796254704</v>
       </c>
       <c r="O6" t="n">
+        <v>123380.5796254701</v>
+      </c>
+      <c r="P6" t="n">
         <v>123380.5796254703</v>
-      </c>
-      <c r="P6" t="n">
-        <v>123380.5796254702</v>
       </c>
     </row>
   </sheetData>
@@ -26716,16 +26716,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203967</v>
       </c>
     </row>
     <row r="3">
@@ -26790,10 +26790,10 @@
         <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
+        <v>831.4014554022925</v>
+      </c>
+      <c r="D4" t="n">
         <v>831.4014554022929</v>
-      </c>
-      <c r="D4" t="n">
-        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26805,10 +26805,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26938,7 +26938,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>5.329070518200751e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022923</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,7 +27379,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>111.928841830693</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27555,7 +27555,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27591,7 +27591,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>274.8782383286242</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27619,19 +27619,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>49.93868622421871</v>
       </c>
       <c r="E5" t="n">
-        <v>90.73118233835419</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
         <v>203.9179701396201</v>
@@ -27676,13 +27676,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,25 +27771,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.4044741610387916</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -27819,10 +27819,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -27831,13 +27831,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>51.12460430110272</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27853,16 +27853,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>275.4283390654978</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27871,7 +27871,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>306.4732379112239</v>
       </c>
     </row>
     <row r="9">
@@ -28059,10 +28059,10 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28071,13 +28071,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>139.5222760660323</v>
+        <v>176.4272020477022</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28096,7 +28096,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -28311,7 +28311,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>-1.319714707885093e-12</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -28327,7 +28327,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -28336,7 +28336,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -28545,7 +28545,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>-2.241631118489267e-12</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -28573,7 +28573,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -28755,7 +28755,7 @@
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>-1.696776052995119e-12</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -28810,7 +28810,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.012949724099599e-12</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -29035,7 +29035,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -29275,7 +29275,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -29290,7 +29290,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="38">
@@ -30226,7 +30226,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="C43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="D43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="E43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="F43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="G43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="H43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="I43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="J43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="K43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="L43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="M43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="N43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="O43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="P43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="R43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="S43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="T43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="U43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="V43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="W43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="X43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203967</v>
       </c>
     </row>
   </sheetData>
@@ -31841,16 +31841,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>533.6019216797995</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>595.327537312171</v>
       </c>
       <c r="O12" t="n">
         <v>142.5962444444444</v>
@@ -31859,10 +31859,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32075,7 +32075,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>261.5336801130329</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
@@ -32090,16 +32090,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32327,13 +32327,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>154.5219885631796</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32482,7 +32482,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159439</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
         <v>926.5868626460027</v>
@@ -32561,19 +32561,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>332.1692388321076</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32795,22 +32795,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>163.4402738502014</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33020,31 +33020,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>698.850866879865</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33184,7 +33184,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L29" t="n">
         <v>867.846407116256</v>
@@ -33199,7 +33199,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.820449923651</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
         <v>593.8732233669223</v>
@@ -33263,10 +33263,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>209.2370040367373</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33275,16 +33275,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33436,13 +33436,13 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.820449923651</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
         <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S32" t="n">
         <v>125.31755462929</v>
@@ -33494,34 +33494,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>661.8411144019728</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33679,7 +33679,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
@@ -33740,7 +33740,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33749,16 +33749,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>198.5607970756955</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33889,7 +33889,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33968,7 +33968,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33977,7 +33977,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33986,10 +33986,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>334.7693860946154</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34153,7 +34153,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
@@ -34217,22 +34217,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>366.8427442359106</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34363,10 +34363,10 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
         <v>699.5441750817575</v>
@@ -34457,19 +34457,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>193.964997009853</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -35489,16 +35489,16 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>395.0475418999253</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>463.9858252288377</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -35507,10 +35507,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35723,7 +35723,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>134.6960534463662</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
@@ -35738,16 +35738,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35820,7 +35820,7 @@
         <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066234</v>
       </c>
       <c r="Q16" t="n">
         <v>120.4022572998984</v>
@@ -35905,7 +35905,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35975,13 +35975,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>20.54758114884936</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36051,7 +36051,7 @@
         <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899057</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
         <v>373.2618997060454</v>
@@ -36130,7 +36130,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193529</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
         <v>696.488651224316</v>
@@ -36209,19 +36209,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>189.5729943876631</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36443,22 +36443,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>29.46586643587111</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36668,31 +36668,31 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>556.7168329578467</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36832,7 +36832,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L29" t="n">
         <v>632.0799921462688</v>
@@ -36847,7 +36847,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
         <v>371.5675334924728</v>
@@ -36911,10 +36911,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>71.39556506237828</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36923,16 +36923,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37084,13 +37084,13 @@
         <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
         <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>519.7070804799545</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37327,7 +37327,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37388,7 +37388,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37397,16 +37397,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>55.96455263125101</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37464,13 +37464,13 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L37" t="n">
         <v>418.6266618111712</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N37" t="n">
         <v>445.9107804819471</v>
@@ -37482,7 +37482,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37625,7 +37625,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37634,10 +37634,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>200.7949786802852</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37704,7 +37704,7 @@
         <v>288.6172359016746</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M40" t="n">
         <v>450.5570744930848</v>
@@ -37719,7 +37719,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37801,7 +37801,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37865,22 +37865,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>235.5010321525773</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K43" t="n">
         <v>288.6172359016746</v>
@@ -37953,7 +37953,7 @@
         <v>397.5465471980851</v>
       </c>
       <c r="P43" t="n">
-        <v>319.9164207986647</v>
+        <v>319.9164207986646</v>
       </c>
       <c r="Q43" t="n">
         <v>144.686904791938</v>
@@ -38011,10 +38011,10 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
         <v>479.454324036777</v>
@@ -38105,19 +38105,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>59.99058959552271</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P46" t="n">
-        <v>319.9164207986647</v>
+        <v>319.9164207986646</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
